--- a/test/test_resources/megredBorders.xlsx
+++ b/test/test_resources/megredBorders.xlsx
@@ -117,6 +117,7 @@
     <font/>
     <font/>
     <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="443">
+  <borders count="547">
     <border>
       <left/>
       <right/>
@@ -4525,6 +4526,1046 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF2F5B70"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashDotDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDotDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDotDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dashDotDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4532,7 +5573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="467">
+  <cellXfs count="573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5002,6 +6043,112 @@
     <xf borderId="440" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf borderId="441" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf borderId="442" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="443" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="444" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="445" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="446" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="447" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="448" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="449" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="450" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="451" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="452" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="453" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="454" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="455" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="456" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="457" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="458" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="459" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="460" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="461" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="462" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="463" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="464" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="465" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="466" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="467" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="468" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="469" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="470" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="471" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="472" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="473" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="474" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="475" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="476" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="477" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="478" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="479" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="480" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="481" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="482" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="483" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="484" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="485" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="486" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="487" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="488" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="489" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="490" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="491" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="492" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="493" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="494" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="495" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="496" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="497" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="498" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="499" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="500" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="501" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="502" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="503" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="504" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="505" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="506" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="507" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="508" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="509" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="510" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="511" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="512" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="513" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="514" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="515" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="516" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="517" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="518" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="519" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="520" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="521" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="522" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="523" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="524" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="525" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="526" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="527" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="528" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="529" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="530" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="531" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="532" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="533" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="534" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="535" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="536" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="537" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="538" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="539" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="540" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="541" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="542" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="543" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="544" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="545" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="546" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5327,225 +6474,225 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="362" t="s">
+      <c r="B6" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="363"/>
-      <c r="D6" s="364"/>
+      <c r="C6" s="469"/>
+      <c r="D6" s="470"/>
     </row>
     <row r="7">
-      <c r="B7" s="401"/>
-      <c r="C7" s="402"/>
-      <c r="D7" s="403"/>
+      <c r="B7" s="507"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="509"/>
     </row>
     <row r="8">
-      <c r="B8" s="404"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="406"/>
+      <c r="B8" s="510"/>
+      <c r="C8" s="511"/>
+      <c r="D8" s="512"/>
     </row>
     <row r="10">
-      <c r="B10" s="365" t="s">
+      <c r="B10" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="366"/>
-      <c r="D10" s="367"/>
+      <c r="C10" s="472"/>
+      <c r="D10" s="473"/>
     </row>
     <row r="11">
-      <c r="B11" s="407"/>
-      <c r="C11" s="402"/>
-      <c r="D11" s="408"/>
+      <c r="B11" s="513"/>
+      <c r="C11" s="508"/>
+      <c r="D11" s="514"/>
     </row>
     <row r="12">
-      <c r="B12" s="409"/>
-      <c r="C12" s="410"/>
-      <c r="D12" s="411"/>
+      <c r="B12" s="515"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="517"/>
     </row>
     <row r="14">
-      <c r="B14" s="368" t="s">
+      <c r="B14" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="369"/>
-      <c r="D14" s="370"/>
+      <c r="C14" s="475"/>
+      <c r="D14" s="476"/>
     </row>
     <row r="15">
-      <c r="B15" s="412"/>
-      <c r="C15" s="402"/>
-      <c r="D15" s="413"/>
+      <c r="B15" s="518"/>
+      <c r="C15" s="508"/>
+      <c r="D15" s="519"/>
     </row>
     <row r="16">
-      <c r="B16" s="414"/>
-      <c r="C16" s="415"/>
-      <c r="D16" s="416"/>
+      <c r="B16" s="520"/>
+      <c r="C16" s="521"/>
+      <c r="D16" s="522"/>
     </row>
     <row r="18">
-      <c r="B18" s="371" t="s">
+      <c r="B18" s="477" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="372"/>
-      <c r="D18" s="373"/>
+      <c r="C18" s="478"/>
+      <c r="D18" s="479"/>
     </row>
     <row r="19">
-      <c r="B19" s="417"/>
-      <c r="C19" s="402"/>
-      <c r="D19" s="418"/>
+      <c r="B19" s="523"/>
+      <c r="C19" s="508"/>
+      <c r="D19" s="524"/>
     </row>
     <row r="20">
-      <c r="B20" s="419"/>
-      <c r="C20" s="420"/>
-      <c r="D20" s="421"/>
+      <c r="B20" s="525"/>
+      <c r="C20" s="526"/>
+      <c r="D20" s="527"/>
     </row>
     <row r="22">
-      <c r="B22" s="374" t="s">
+      <c r="B22" s="480" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="375"/>
-      <c r="D22" s="376"/>
+      <c r="C22" s="481"/>
+      <c r="D22" s="482"/>
     </row>
     <row r="23">
-      <c r="B23" s="422"/>
-      <c r="C23" s="402"/>
-      <c r="D23" s="423"/>
+      <c r="B23" s="528"/>
+      <c r="C23" s="508"/>
+      <c r="D23" s="529"/>
     </row>
     <row r="24">
-      <c r="B24" s="424"/>
-      <c r="C24" s="425"/>
-      <c r="D24" s="426"/>
+      <c r="B24" s="530"/>
+      <c r="C24" s="531"/>
+      <c r="D24" s="532"/>
     </row>
     <row r="26">
-      <c r="B26" s="377" t="s">
+      <c r="B26" s="483" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="378"/>
-      <c r="D26" s="379"/>
+      <c r="C26" s="484"/>
+      <c r="D26" s="485"/>
     </row>
     <row r="27">
-      <c r="B27" s="427"/>
-      <c r="C27" s="402"/>
-      <c r="D27" s="428"/>
+      <c r="B27" s="533"/>
+      <c r="C27" s="508"/>
+      <c r="D27" s="534"/>
     </row>
     <row r="28">
-      <c r="B28" s="429"/>
-      <c r="C28" s="430"/>
-      <c r="D28" s="431"/>
+      <c r="B28" s="535"/>
+      <c r="C28" s="536"/>
+      <c r="D28" s="537"/>
     </row>
     <row r="30">
-      <c r="B30" s="380" t="s">
+      <c r="B30" s="486" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="381"/>
-      <c r="D30" s="382"/>
+      <c r="C30" s="487"/>
+      <c r="D30" s="488"/>
     </row>
     <row r="31">
-      <c r="B31" s="432"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="433"/>
+      <c r="B31" s="538"/>
+      <c r="C31" s="508"/>
+      <c r="D31" s="539"/>
     </row>
     <row r="32">
-      <c r="B32" s="434"/>
-      <c r="C32" s="435"/>
-      <c r="D32" s="436"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="541"/>
+      <c r="D32" s="542"/>
     </row>
     <row r="34">
-      <c r="B34" s="383" t="s">
+      <c r="B34" s="489" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="384"/>
-      <c r="D34" s="385"/>
+      <c r="C34" s="490"/>
+      <c r="D34" s="491"/>
     </row>
     <row r="35">
-      <c r="B35" s="437"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="438"/>
+      <c r="B35" s="543"/>
+      <c r="C35" s="508"/>
+      <c r="D35" s="544"/>
     </row>
     <row r="36">
-      <c r="B36" s="439"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="441"/>
+      <c r="B36" s="545"/>
+      <c r="C36" s="546"/>
+      <c r="D36" s="547"/>
     </row>
     <row r="38">
-      <c r="B38" s="386" t="s">
+      <c r="B38" s="492" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="387"/>
-      <c r="D38" s="388"/>
+      <c r="C38" s="493"/>
+      <c r="D38" s="494"/>
     </row>
     <row r="39">
-      <c r="B39" s="442"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="443"/>
+      <c r="B39" s="548"/>
+      <c r="C39" s="508"/>
+      <c r="D39" s="549"/>
     </row>
     <row r="40">
-      <c r="B40" s="444"/>
-      <c r="C40" s="445"/>
-      <c r="D40" s="446"/>
+      <c r="B40" s="550"/>
+      <c r="C40" s="551"/>
+      <c r="D40" s="552"/>
     </row>
     <row r="42">
-      <c r="B42" s="389" t="s">
+      <c r="B42" s="495" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="390"/>
-      <c r="D42" s="391"/>
+      <c r="C42" s="496"/>
+      <c r="D42" s="497"/>
     </row>
     <row r="43">
-      <c r="B43" s="447"/>
-      <c r="C43" s="402"/>
-      <c r="D43" s="448"/>
+      <c r="B43" s="553"/>
+      <c r="C43" s="508"/>
+      <c r="D43" s="554"/>
     </row>
     <row r="44">
-      <c r="B44" s="449"/>
-      <c r="C44" s="450"/>
-      <c r="D44" s="451"/>
+      <c r="B44" s="555"/>
+      <c r="C44" s="556"/>
+      <c r="D44" s="557"/>
     </row>
     <row r="46">
-      <c r="B46" s="392" t="s">
+      <c r="B46" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="393"/>
-      <c r="D46" s="394"/>
+      <c r="C46" s="499"/>
+      <c r="D46" s="500"/>
     </row>
     <row r="47">
-      <c r="B47" s="452"/>
-      <c r="C47" s="402"/>
-      <c r="D47" s="453"/>
+      <c r="B47" s="558"/>
+      <c r="C47" s="508"/>
+      <c r="D47" s="559"/>
     </row>
     <row r="48">
-      <c r="B48" s="454"/>
-      <c r="C48" s="455"/>
-      <c r="D48" s="456"/>
+      <c r="B48" s="560"/>
+      <c r="C48" s="561"/>
+      <c r="D48" s="562"/>
     </row>
     <row r="50">
-      <c r="B50" s="395" t="s">
+      <c r="B50" s="501" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="396"/>
-      <c r="D50" s="397"/>
+      <c r="C50" s="502"/>
+      <c r="D50" s="503"/>
     </row>
     <row r="51">
-      <c r="B51" s="457"/>
-      <c r="C51" s="402"/>
-      <c r="D51" s="458"/>
+      <c r="B51" s="563"/>
+      <c r="C51" s="508"/>
+      <c r="D51" s="564"/>
     </row>
     <row r="52">
-      <c r="B52" s="459"/>
-      <c r="C52" s="460"/>
-      <c r="D52" s="461"/>
+      <c r="B52" s="565"/>
+      <c r="C52" s="566"/>
+      <c r="D52" s="567"/>
     </row>
     <row r="54">
-      <c r="B54" s="398" t="s">
+      <c r="B54" s="504" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="399"/>
-      <c r="D54" s="400"/>
+      <c r="C54" s="505"/>
+      <c r="D54" s="506"/>
     </row>
     <row r="55">
-      <c r="B55" s="462"/>
-      <c r="C55" s="402"/>
-      <c r="D55" s="463"/>
+      <c r="B55" s="568"/>
+      <c r="C55" s="508"/>
+      <c r="D55" s="569"/>
     </row>
     <row r="56">
-      <c r="B56" s="464"/>
-      <c r="C56" s="465"/>
-      <c r="D56" s="466"/>
+      <c r="B56" s="570"/>
+      <c r="C56" s="571"/>
+      <c r="D56" s="572"/>
     </row>
   </sheetData>
   <mergeCells count="14">
